--- a/3SIS-ProjetoExemploGIT-main/PastaDocsProjeto/Orcamento.xlsx
+++ b/3SIS-ProjetoExemploGIT-main/PastaDocsProjeto/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Documents\TESTE-USO-GIT\3SIS-ProjetoExemploGIT\3SIS-ProjetoExemploGIT-main\PastaDocsProjeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1065840-CC89-445C-BB23-38CEF438DC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16765A6-60E4-4F67-A707-CEFFFB1078E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>orçamento do projeto</t>
   </si>
@@ -37,14 +37,31 @@
   </si>
   <si>
     <t xml:space="preserve">Salários </t>
+  </si>
+  <si>
+    <t>R$5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluguel </t>
+  </si>
+  <si>
+    <t>R$10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,10 +390,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -383,8 +401,20 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>